--- a/results/SubResults.xlsx
+++ b/results/SubResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pycharm Project\VMD_Ts2Image\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCCD958F-67C5-4F45-AF83-92525C6A386C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{390E0753-34C6-431E-B78F-4E7AF2D921AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19310" yWindow="3470" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>SubID</t>
   </si>
@@ -77,6 +77,22 @@
   </si>
   <si>
     <t>sigmoid64</t>
+  </si>
+  <si>
+    <t>linear96</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>linear128</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GAF96</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,7537</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -452,15 +468,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P32"/>
+  <dimension ref="A1:S32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W16" sqref="W16"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -474,43 +490,52 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -524,43 +549,52 @@
         <v>0.79390000000000005</v>
       </c>
       <c r="E2">
+        <v>0.79390000000000005</v>
+      </c>
+      <c r="F2">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="G2">
         <v>0.74429999999999996</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>0.79010000000000002</v>
       </c>
-      <c r="G2">
+      <c r="I2">
+        <v>0.79010000000000002</v>
+      </c>
+      <c r="J2">
         <v>0.51910000000000001</v>
       </c>
-      <c r="H2">
+      <c r="K2">
         <v>0.4733</v>
       </c>
-      <c r="I2">
+      <c r="L2">
         <v>0.75570000000000004</v>
       </c>
-      <c r="J2">
+      <c r="M2">
         <v>0.77480000000000004</v>
       </c>
-      <c r="K2">
+      <c r="N2">
         <v>0.69850000000000001</v>
       </c>
-      <c r="L2">
+      <c r="O2">
         <v>0.67179999999999995</v>
       </c>
-      <c r="M2">
+      <c r="P2">
         <v>0.72140000000000004</v>
       </c>
-      <c r="N2">
+      <c r="Q2">
         <v>0.68700000000000006</v>
       </c>
-      <c r="O2">
+      <c r="R2">
         <v>0.77100000000000002</v>
       </c>
-      <c r="P2">
+      <c r="S2">
         <v>0.77100000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -574,43 +608,52 @@
         <v>0.88460000000000005</v>
       </c>
       <c r="E3">
-        <v>0.8881</v>
+        <v>0.90559999999999996</v>
       </c>
       <c r="F3">
         <v>0.86360000000000003</v>
       </c>
       <c r="G3">
+        <v>0.8881</v>
+      </c>
+      <c r="H3">
+        <v>0.86360000000000003</v>
+      </c>
+      <c r="I3">
+        <v>0.90210000000000001</v>
+      </c>
+      <c r="J3">
         <v>0.61539999999999995</v>
       </c>
-      <c r="H3">
+      <c r="K3">
         <v>0.67830000000000001</v>
       </c>
-      <c r="I3">
+      <c r="L3">
         <v>0.8427</v>
       </c>
-      <c r="J3">
+      <c r="M3">
         <v>0.90210000000000001</v>
       </c>
-      <c r="K3">
+      <c r="N3">
         <v>0.79720000000000002</v>
       </c>
-      <c r="L3">
+      <c r="O3">
         <v>0.75519999999999998</v>
       </c>
-      <c r="M3">
+      <c r="P3">
         <v>0.78320000000000001</v>
       </c>
-      <c r="N3">
+      <c r="Q3">
         <v>0.74129999999999996</v>
       </c>
-      <c r="O3">
+      <c r="R3">
         <v>0.85660000000000003</v>
       </c>
-      <c r="P3">
+      <c r="S3">
         <v>0.88460000000000005</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -624,43 +667,52 @@
         <v>0.8216</v>
       </c>
       <c r="E4">
+        <v>0.8216</v>
+      </c>
+      <c r="F4">
+        <v>0.7732</v>
+      </c>
+      <c r="G4">
         <v>0.74719999999999998</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>0.78069999999999995</v>
       </c>
-      <c r="G4">
+      <c r="I4">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="J4">
         <v>0.5242</v>
       </c>
-      <c r="H4">
+      <c r="K4">
         <v>0.56510000000000005</v>
       </c>
-      <c r="I4">
+      <c r="L4">
         <v>0.79179999999999995</v>
       </c>
-      <c r="J4">
+      <c r="M4">
         <v>0.80300000000000005</v>
       </c>
-      <c r="K4">
+      <c r="N4">
         <v>0.71</v>
       </c>
-      <c r="L4">
+      <c r="O4">
         <v>0.71750000000000003</v>
       </c>
-      <c r="M4">
+      <c r="P4">
         <v>0.71</v>
       </c>
-      <c r="N4">
+      <c r="Q4">
         <v>0.72860000000000003</v>
       </c>
-      <c r="O4">
+      <c r="R4">
         <v>0.7621</v>
       </c>
-      <c r="P4">
+      <c r="S4">
         <v>0.79549999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -674,43 +726,52 @@
         <v>0.66539999999999999</v>
       </c>
       <c r="E5">
+        <v>0.69289999999999996</v>
+      </c>
+      <c r="F5">
+        <v>0.74409999999999998</v>
+      </c>
+      <c r="G5">
         <v>0.66930000000000001</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>0.70469999999999999</v>
       </c>
-      <c r="G5">
+      <c r="I5">
+        <v>0.73619999999999997</v>
+      </c>
+      <c r="J5">
         <v>0.45669999999999999</v>
       </c>
-      <c r="H5">
+      <c r="K5">
         <v>0.42909999999999998</v>
       </c>
-      <c r="I5">
+      <c r="L5">
         <v>0.626</v>
       </c>
-      <c r="J5">
+      <c r="M5">
         <v>0.71260000000000001</v>
       </c>
-      <c r="K5">
+      <c r="N5">
         <v>0.61809999999999998</v>
       </c>
-      <c r="L5">
+      <c r="O5">
         <v>0.65349999999999997</v>
       </c>
-      <c r="M5">
+      <c r="P5">
         <v>0.57869999999999999</v>
       </c>
-      <c r="N5">
+      <c r="Q5">
         <v>0.64170000000000005</v>
       </c>
-      <c r="O5">
+      <c r="R5">
         <v>0.66139999999999999</v>
       </c>
-      <c r="P5">
+      <c r="S5">
         <v>0.63390000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -724,43 +785,52 @@
         <v>0.86760000000000004</v>
       </c>
       <c r="E6">
+        <v>0.83460000000000001</v>
+      </c>
+      <c r="F6">
+        <v>0.8387</v>
+      </c>
+      <c r="G6">
         <v>0.82350000000000001</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>0.82720000000000005</v>
       </c>
-      <c r="G6">
+      <c r="I6">
+        <v>0.87129999999999996</v>
+      </c>
+      <c r="J6">
         <v>0.54039999999999999</v>
       </c>
-      <c r="H6">
+      <c r="K6">
         <v>0.58089999999999997</v>
       </c>
-      <c r="I6">
+      <c r="L6">
         <v>0.81620000000000004</v>
       </c>
-      <c r="J6">
+      <c r="M6">
         <v>0.83819999999999995</v>
       </c>
-      <c r="K6">
+      <c r="N6">
         <v>0.73529999999999995</v>
       </c>
-      <c r="L6">
+      <c r="O6">
         <v>0.76839999999999997</v>
       </c>
-      <c r="M6">
+      <c r="P6">
         <v>0.73529999999999995</v>
       </c>
-      <c r="N6">
+      <c r="Q6">
         <v>0.76470000000000005</v>
       </c>
-      <c r="O6">
+      <c r="R6">
         <v>0.83819999999999995</v>
       </c>
-      <c r="P6">
+      <c r="S6">
         <v>0.84930000000000005</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -774,43 +844,52 @@
         <v>0.87609999999999999</v>
       </c>
       <c r="E7">
+        <v>0.88939999999999997</v>
+      </c>
+      <c r="F7">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="G7">
         <v>0.78759999999999997</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>0.8407</v>
       </c>
-      <c r="G7">
+      <c r="I7">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="J7">
         <v>0.70799999999999996</v>
       </c>
-      <c r="H7">
+      <c r="K7">
         <v>0.71240000000000003</v>
       </c>
-      <c r="I7">
+      <c r="L7">
         <v>0.85840000000000005</v>
       </c>
-      <c r="J7">
+      <c r="M7">
         <v>0.87609999999999999</v>
       </c>
-      <c r="K7">
+      <c r="N7">
         <v>0.7611</v>
       </c>
-      <c r="L7">
+      <c r="O7">
         <v>0.77429999999999999</v>
       </c>
-      <c r="M7">
+      <c r="P7">
         <v>0.74339999999999995</v>
       </c>
-      <c r="N7">
+      <c r="Q7">
         <v>0.74780000000000002</v>
       </c>
-      <c r="O7">
+      <c r="R7">
         <v>0.84509999999999996</v>
       </c>
-      <c r="P7">
+      <c r="S7">
         <v>0.86729999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -824,43 +903,52 @@
         <v>0.76980000000000004</v>
       </c>
       <c r="E8">
+        <v>0.78779999999999994</v>
+      </c>
+      <c r="F8">
+        <v>0.78059999999999996</v>
+      </c>
+      <c r="G8">
         <v>0.78420000000000001</v>
       </c>
-      <c r="F8">
+      <c r="H8">
         <v>0.79139999999999999</v>
       </c>
-      <c r="G8">
+      <c r="I8">
+        <v>0.79859999999999998</v>
+      </c>
+      <c r="J8">
         <v>0.50360000000000005</v>
       </c>
-      <c r="H8">
+      <c r="K8">
         <v>0.56469999999999998</v>
       </c>
-      <c r="I8">
+      <c r="L8">
         <v>0.74819999999999998</v>
       </c>
-      <c r="J8">
+      <c r="M8">
         <v>0.78059999999999996</v>
       </c>
-      <c r="K8">
+      <c r="N8">
         <v>0.66910000000000003</v>
       </c>
-      <c r="L8">
+      <c r="O8">
         <v>0.58630000000000004</v>
       </c>
-      <c r="M8">
+      <c r="P8">
         <v>0.67269999999999996</v>
       </c>
-      <c r="N8">
+      <c r="Q8">
         <v>0.67269999999999996</v>
       </c>
-      <c r="O8">
+      <c r="R8">
         <v>0.71579999999999999</v>
       </c>
-      <c r="P8">
+      <c r="S8">
         <v>0.74099999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -874,43 +962,52 @@
         <v>0.84789999999999999</v>
       </c>
       <c r="E9">
+        <v>0.85170000000000001</v>
+      </c>
+      <c r="F9">
+        <v>0.80989999999999995</v>
+      </c>
+      <c r="G9">
         <v>0.82509999999999994</v>
       </c>
-      <c r="F9">
+      <c r="H9">
         <v>0.87070000000000003</v>
-      </c>
-      <c r="G9">
-        <v>0.55510000000000004</v>
-      </c>
-      <c r="H9">
-        <v>0.56269999999999998</v>
       </c>
       <c r="I9">
         <v>0.85170000000000001</v>
       </c>
       <c r="J9">
+        <v>0.55510000000000004</v>
+      </c>
+      <c r="K9">
+        <v>0.56269999999999998</v>
+      </c>
+      <c r="L9">
+        <v>0.85170000000000001</v>
+      </c>
+      <c r="M9">
         <v>0.84789999999999999</v>
       </c>
-      <c r="K9">
+      <c r="N9">
         <v>0.68440000000000001</v>
       </c>
-      <c r="L9">
+      <c r="O9">
         <v>0.70720000000000005</v>
       </c>
-      <c r="M9">
+      <c r="P9">
         <v>0.71479999999999999</v>
       </c>
-      <c r="N9">
+      <c r="Q9">
         <v>0.76429999999999998</v>
       </c>
-      <c r="O9">
+      <c r="R9">
         <v>0.84789999999999999</v>
       </c>
-      <c r="P9">
+      <c r="S9">
         <v>0.87070000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -924,43 +1021,52 @@
         <v>0.92569999999999997</v>
       </c>
       <c r="E10">
+        <v>0.93240000000000001</v>
+      </c>
+      <c r="F10">
+        <v>0.88180000000000003</v>
+      </c>
+      <c r="G10">
         <v>0.91549999999999998</v>
       </c>
-      <c r="F10">
+      <c r="H10">
         <v>0.92230000000000001</v>
       </c>
-      <c r="G10">
+      <c r="I10">
+        <v>0.92910000000000004</v>
+      </c>
+      <c r="J10">
         <v>0.61150000000000004</v>
       </c>
-      <c r="H10">
+      <c r="K10">
         <v>0.72299999999999998</v>
       </c>
-      <c r="I10">
+      <c r="L10">
         <v>0.91890000000000005</v>
       </c>
-      <c r="J10">
+      <c r="M10">
         <v>0.94930000000000003</v>
-      </c>
-      <c r="K10">
-        <v>0.77029999999999998</v>
-      </c>
-      <c r="L10">
-        <v>0.81420000000000003</v>
-      </c>
-      <c r="M10">
-        <v>0.79730000000000001</v>
       </c>
       <c r="N10">
         <v>0.77029999999999998</v>
       </c>
       <c r="O10">
+        <v>0.81420000000000003</v>
+      </c>
+      <c r="P10">
+        <v>0.79730000000000001</v>
+      </c>
+      <c r="Q10">
+        <v>0.77029999999999998</v>
+      </c>
+      <c r="R10">
         <v>0.89529999999999998</v>
       </c>
-      <c r="P10">
+      <c r="S10">
         <v>0.93240000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -974,43 +1080,52 @@
         <v>0.79849999999999999</v>
       </c>
       <c r="E11">
+        <v>0.77990000000000004</v>
+      </c>
+      <c r="F11">
+        <v>0.80220000000000002</v>
+      </c>
+      <c r="G11">
         <v>0.73880000000000001</v>
       </c>
-      <c r="F11">
+      <c r="H11">
         <v>0.78359999999999996</v>
       </c>
-      <c r="G11">
+      <c r="I11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11">
         <v>0.52239999999999998</v>
       </c>
-      <c r="H11">
+      <c r="K11">
         <v>0.55969999999999998</v>
       </c>
-      <c r="I11">
+      <c r="L11">
         <v>0.77990000000000004</v>
       </c>
-      <c r="J11">
+      <c r="M11">
         <v>0.76119999999999999</v>
       </c>
-      <c r="K11">
+      <c r="N11">
         <v>0.64180000000000004</v>
       </c>
-      <c r="L11">
+      <c r="O11">
         <v>0.63060000000000005</v>
       </c>
-      <c r="M11">
+      <c r="P11">
         <v>0.61939999999999995</v>
       </c>
-      <c r="N11">
+      <c r="Q11">
         <v>0.65300000000000002</v>
       </c>
-      <c r="O11">
+      <c r="R11">
         <v>0.72009999999999996</v>
       </c>
-      <c r="P11">
+      <c r="S11">
         <v>0.72760000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1024,43 +1139,52 @@
         <v>0.90490000000000004</v>
       </c>
       <c r="E12">
+        <v>0.90490000000000004</v>
+      </c>
+      <c r="F12">
+        <v>0.92610000000000003</v>
+      </c>
+      <c r="G12">
         <v>0.89080000000000004</v>
       </c>
-      <c r="F12">
+      <c r="H12">
         <v>0.90490000000000004</v>
-      </c>
-      <c r="G12">
-        <v>0.61970000000000003</v>
-      </c>
-      <c r="H12">
-        <v>0.64439999999999997</v>
       </c>
       <c r="I12">
         <v>0.89790000000000003</v>
       </c>
       <c r="J12">
+        <v>0.61970000000000003</v>
+      </c>
+      <c r="K12">
+        <v>0.64439999999999997</v>
+      </c>
+      <c r="L12">
+        <v>0.89790000000000003</v>
+      </c>
+      <c r="M12">
         <v>0.90139999999999998</v>
       </c>
-      <c r="K12">
+      <c r="N12">
         <v>0.79579999999999995</v>
       </c>
-      <c r="L12">
+      <c r="O12">
         <v>0.75700000000000001</v>
       </c>
-      <c r="M12">
+      <c r="P12">
         <v>0.7923</v>
       </c>
-      <c r="N12">
+      <c r="Q12">
         <v>0.7923</v>
       </c>
-      <c r="O12">
+      <c r="R12">
         <v>0.89080000000000004</v>
       </c>
-      <c r="P12">
+      <c r="S12">
         <v>0.90139999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1074,43 +1198,52 @@
         <v>0.63480000000000003</v>
       </c>
       <c r="E13">
+        <v>0.65649999999999997</v>
+      </c>
+      <c r="F13">
+        <v>0.60429999999999995</v>
+      </c>
+      <c r="G13">
         <v>0.68700000000000006</v>
       </c>
-      <c r="F13">
+      <c r="H13">
         <v>0.66959999999999997</v>
       </c>
-      <c r="G13">
+      <c r="I13">
+        <v>0.68259999999999998</v>
+      </c>
+      <c r="J13">
         <v>0.4304</v>
       </c>
-      <c r="H13">
+      <c r="K13">
         <v>0.48259999999999997</v>
-      </c>
-      <c r="I13">
-        <v>0.62170000000000003</v>
-      </c>
-      <c r="J13">
-        <v>0.63480000000000003</v>
-      </c>
-      <c r="K13">
-        <v>0.57830000000000004</v>
       </c>
       <c r="L13">
         <v>0.62170000000000003</v>
       </c>
       <c r="M13">
+        <v>0.63480000000000003</v>
+      </c>
+      <c r="N13">
+        <v>0.57830000000000004</v>
+      </c>
+      <c r="O13">
+        <v>0.62170000000000003</v>
+      </c>
+      <c r="P13">
         <v>0.57389999999999997</v>
       </c>
-      <c r="N13">
+      <c r="Q13">
         <v>0.59130000000000005</v>
       </c>
-      <c r="O13">
+      <c r="R13">
         <v>0.6522</v>
       </c>
-      <c r="P13">
+      <c r="S13">
         <v>0.62170000000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1124,43 +1257,52 @@
         <v>0.66180000000000005</v>
       </c>
       <c r="E14">
+        <v>0.63639999999999997</v>
+      </c>
+      <c r="F14">
+        <v>0.66549999999999998</v>
+      </c>
+      <c r="G14">
         <v>0.58179999999999998</v>
       </c>
-      <c r="F14">
+      <c r="H14">
         <v>0.63270000000000004</v>
       </c>
-      <c r="G14">
+      <c r="I14">
+        <v>0.62180000000000002</v>
+      </c>
+      <c r="J14">
         <v>0.42549999999999999</v>
       </c>
-      <c r="H14">
+      <c r="K14">
         <v>0.48359999999999997</v>
       </c>
-      <c r="I14">
+      <c r="L14">
         <v>0.54179999999999995</v>
       </c>
-      <c r="J14">
+      <c r="M14">
         <v>0.62180000000000002</v>
       </c>
-      <c r="K14">
+      <c r="N14">
         <v>0.5091</v>
       </c>
-      <c r="L14">
+      <c r="O14">
         <v>0.47270000000000001</v>
       </c>
-      <c r="M14">
+      <c r="P14">
         <v>0.50549999999999995</v>
       </c>
-      <c r="N14">
+      <c r="Q14">
         <v>0.48730000000000001</v>
       </c>
-      <c r="O14">
+      <c r="R14">
         <v>0.58909999999999996</v>
       </c>
-      <c r="P14">
+      <c r="S14">
         <v>0.66549999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1174,43 +1316,52 @@
         <v>0.89049999999999996</v>
       </c>
       <c r="E15">
+        <v>0.85040000000000004</v>
+      </c>
+      <c r="F15">
+        <v>0.90510000000000002</v>
+      </c>
+      <c r="G15">
         <v>0.86129999999999995</v>
       </c>
-      <c r="F15">
+      <c r="H15">
         <v>0.84309999999999996</v>
       </c>
-      <c r="G15">
+      <c r="I15">
+        <v>0.91239999999999999</v>
+      </c>
+      <c r="J15">
         <v>0.59489999999999998</v>
       </c>
-      <c r="H15">
+      <c r="K15">
         <v>0.61680000000000001</v>
       </c>
-      <c r="I15">
+      <c r="L15">
         <v>0.86499999999999999</v>
       </c>
-      <c r="J15">
+      <c r="M15">
         <v>0.85399999999999998</v>
-      </c>
-      <c r="K15">
-        <v>0.7591</v>
-      </c>
-      <c r="L15">
-        <v>0.7409</v>
-      </c>
-      <c r="M15">
-        <v>0.79559999999999997</v>
       </c>
       <c r="N15">
         <v>0.7591</v>
       </c>
       <c r="O15">
+        <v>0.7409</v>
+      </c>
+      <c r="P15">
+        <v>0.79559999999999997</v>
+      </c>
+      <c r="Q15">
+        <v>0.7591</v>
+      </c>
+      <c r="R15">
         <v>0.86499999999999999</v>
       </c>
-      <c r="P15">
+      <c r="S15">
         <v>0.85399999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1224,43 +1375,52 @@
         <v>0.88339999999999996</v>
       </c>
       <c r="E16">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="F16">
+        <v>0.92230000000000001</v>
+      </c>
+      <c r="G16">
         <v>0.86929999999999996</v>
       </c>
-      <c r="F16">
+      <c r="H16">
         <v>0.90459999999999996</v>
       </c>
-      <c r="G16">
+      <c r="I16">
+        <v>0.88690000000000002</v>
+      </c>
+      <c r="J16">
         <v>0.59009999999999996</v>
       </c>
-      <c r="H16">
+      <c r="K16">
         <v>0.6431</v>
       </c>
-      <c r="I16">
+      <c r="L16">
         <v>0.87990000000000002</v>
       </c>
-      <c r="J16">
+      <c r="M16">
         <v>0.88339999999999996</v>
       </c>
-      <c r="K16">
+      <c r="N16">
         <v>0.74560000000000004</v>
       </c>
-      <c r="L16">
+      <c r="O16">
         <v>0.73850000000000005</v>
       </c>
-      <c r="M16">
+      <c r="P16">
         <v>0.76680000000000004</v>
       </c>
-      <c r="N16">
+      <c r="Q16">
         <v>0.80569999999999997</v>
       </c>
-      <c r="O16">
+      <c r="R16">
         <v>0.85160000000000002</v>
       </c>
-      <c r="P16">
+      <c r="S16">
         <v>0.87280000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1274,43 +1434,52 @@
         <v>0.89890000000000003</v>
       </c>
       <c r="E17">
+        <v>0.87729999999999997</v>
+      </c>
+      <c r="F17">
+        <v>0.85560000000000003</v>
+      </c>
+      <c r="G17">
         <v>0.84119999999999995</v>
       </c>
-      <c r="F17">
+      <c r="H17">
         <v>0.89170000000000005</v>
       </c>
-      <c r="G17">
+      <c r="I17">
+        <v>0.88449999999999995</v>
+      </c>
+      <c r="J17">
         <v>0.52710000000000001</v>
       </c>
-      <c r="H17">
+      <c r="K17">
         <v>0.6462</v>
       </c>
-      <c r="I17">
+      <c r="L17">
         <v>0.83389999999999997</v>
       </c>
-      <c r="J17">
+      <c r="M17">
         <v>0.81589999999999996</v>
       </c>
-      <c r="K17">
+      <c r="N17">
         <v>0.70399999999999996</v>
       </c>
-      <c r="L17">
+      <c r="O17">
         <v>0.67510000000000003</v>
       </c>
-      <c r="M17">
+      <c r="P17">
         <v>0.6895</v>
       </c>
-      <c r="N17">
+      <c r="Q17">
         <v>0.69310000000000005</v>
       </c>
-      <c r="O17">
+      <c r="R17">
         <v>0.8881</v>
       </c>
-      <c r="P17">
+      <c r="S17">
         <v>0.83030000000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1324,43 +1493,52 @@
         <v>0.88009999999999999</v>
       </c>
       <c r="E18">
+        <v>0.89380000000000004</v>
+      </c>
+      <c r="F18">
+        <v>0.89729999999999999</v>
+      </c>
+      <c r="G18">
         <v>0.81510000000000005</v>
       </c>
-      <c r="F18">
+      <c r="H18">
         <v>0.84589999999999999</v>
       </c>
-      <c r="G18">
+      <c r="I18">
+        <v>0.85960000000000003</v>
+      </c>
+      <c r="J18">
         <v>0.60619999999999996</v>
       </c>
-      <c r="H18">
+      <c r="K18">
         <v>0.61639999999999995</v>
       </c>
-      <c r="I18">
+      <c r="L18">
         <v>0.82189999999999996</v>
       </c>
-      <c r="J18">
+      <c r="M18">
         <v>0.88009999999999999</v>
       </c>
-      <c r="K18">
+      <c r="N18">
         <v>0.68840000000000001</v>
       </c>
-      <c r="L18">
+      <c r="O18">
         <v>0.7329</v>
       </c>
-      <c r="M18">
+      <c r="P18">
         <v>0.73629999999999995</v>
       </c>
-      <c r="N18">
+      <c r="Q18">
         <v>0.72260000000000002</v>
       </c>
-      <c r="O18">
+      <c r="R18">
         <v>0.85619999999999996</v>
       </c>
-      <c r="P18">
+      <c r="S18">
         <v>0.84930000000000005</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1374,43 +1552,52 @@
         <v>0.85199999999999998</v>
       </c>
       <c r="E19">
+        <v>0.8448</v>
+      </c>
+      <c r="F19">
         <v>0.83750000000000002</v>
       </c>
-      <c r="F19">
+      <c r="G19">
+        <v>0.83750000000000002</v>
+      </c>
+      <c r="H19">
         <v>0.81950000000000001</v>
       </c>
-      <c r="G19">
+      <c r="I19">
+        <v>0.84119999999999995</v>
+      </c>
+      <c r="J19">
         <v>0.59570000000000001</v>
       </c>
-      <c r="H19">
+      <c r="K19">
         <v>0.62090000000000001</v>
       </c>
-      <c r="I19">
+      <c r="L19">
         <v>0.85199999999999998</v>
       </c>
-      <c r="J19">
+      <c r="M19">
         <v>0.79059999999999997</v>
       </c>
-      <c r="K19">
+      <c r="N19">
         <v>0.68230000000000002</v>
       </c>
-      <c r="L19">
+      <c r="O19">
         <v>0.6895</v>
       </c>
-      <c r="M19">
+      <c r="P19">
         <v>0.7329</v>
       </c>
-      <c r="N19">
+      <c r="Q19">
         <v>0.74729999999999996</v>
       </c>
-      <c r="O19">
+      <c r="R19">
         <v>0.81589999999999996</v>
       </c>
-      <c r="P19">
+      <c r="S19">
         <v>0.82669999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1424,43 +1611,52 @@
         <v>0.8054</v>
       </c>
       <c r="E20">
+        <v>0.74319999999999997</v>
+      </c>
+      <c r="F20">
+        <v>0.75490000000000002</v>
+      </c>
+      <c r="G20">
         <v>0.63039999999999996</v>
       </c>
-      <c r="F20">
+      <c r="H20">
         <v>0.77429999999999999</v>
       </c>
-      <c r="G20">
+      <c r="I20">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="J20">
         <v>0.46689999999999998</v>
       </c>
-      <c r="H20">
+      <c r="K20">
         <v>0.57199999999999995</v>
       </c>
-      <c r="I20">
+      <c r="L20">
         <v>0.66539999999999999</v>
       </c>
-      <c r="J20">
+      <c r="M20">
         <v>0.77429999999999999</v>
       </c>
-      <c r="K20">
+      <c r="N20">
         <v>0.55249999999999999</v>
       </c>
-      <c r="L20">
+      <c r="O20">
         <v>0.65759999999999996</v>
       </c>
-      <c r="M20">
+      <c r="P20">
         <v>0.52139999999999997</v>
       </c>
-      <c r="N20">
+      <c r="Q20">
         <v>0.67320000000000002</v>
       </c>
-      <c r="O20">
+      <c r="R20">
         <v>0.64200000000000002</v>
       </c>
-      <c r="P20">
+      <c r="S20">
         <v>0.75490000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1474,43 +1670,52 @@
         <v>0.82750000000000001</v>
       </c>
       <c r="E21">
+        <v>0.87060000000000004</v>
+      </c>
+      <c r="F21">
+        <v>0.83140000000000003</v>
+      </c>
+      <c r="G21">
         <v>0.8196</v>
       </c>
-      <c r="F21">
+      <c r="H21">
         <v>0.85099999999999998</v>
-      </c>
-      <c r="G21">
-        <v>0.54120000000000001</v>
-      </c>
-      <c r="H21">
-        <v>0.57250000000000001</v>
       </c>
       <c r="I21">
         <v>0.81569999999999998</v>
       </c>
       <c r="J21">
+        <v>0.54120000000000001</v>
+      </c>
+      <c r="K21">
+        <v>0.57250000000000001</v>
+      </c>
+      <c r="L21">
+        <v>0.81569999999999998</v>
+      </c>
+      <c r="M21">
         <v>0.85099999999999998</v>
       </c>
-      <c r="K21">
+      <c r="N21">
         <v>0.73729999999999996</v>
       </c>
-      <c r="L21">
+      <c r="O21">
         <v>0.70979999999999999</v>
       </c>
-      <c r="M21">
+      <c r="P21">
         <v>0.67059999999999997</v>
       </c>
-      <c r="N21">
+      <c r="Q21">
         <v>0.68630000000000002</v>
       </c>
-      <c r="O21">
+      <c r="R21">
         <v>0.8196</v>
       </c>
-      <c r="P21">
+      <c r="S21">
         <v>0.8196</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1524,43 +1729,52 @@
         <v>0.76060000000000005</v>
       </c>
       <c r="E22">
+        <v>0.79579999999999995</v>
+      </c>
+      <c r="F22">
+        <v>0.77110000000000001</v>
+      </c>
+      <c r="G22">
         <v>0.7359</v>
       </c>
-      <c r="F22">
+      <c r="H22">
         <v>0.82040000000000002</v>
       </c>
-      <c r="G22">
+      <c r="I22">
+        <v>0.78169999999999995</v>
+      </c>
+      <c r="J22">
         <v>0.52110000000000001</v>
       </c>
-      <c r="H22">
+      <c r="K22">
         <v>0.55989999999999995</v>
       </c>
-      <c r="I22">
+      <c r="L22">
         <v>0.77459999999999996</v>
       </c>
-      <c r="J22">
+      <c r="M22">
         <v>0.77459999999999996</v>
       </c>
-      <c r="K22">
+      <c r="N22">
         <v>0.66200000000000003</v>
       </c>
-      <c r="L22">
+      <c r="O22">
         <v>0.66200000000000003</v>
       </c>
-      <c r="M22">
+      <c r="P22">
         <v>0.60919999999999996</v>
       </c>
-      <c r="N22">
+      <c r="Q22">
         <v>0.65490000000000004</v>
       </c>
-      <c r="O22">
+      <c r="R22">
         <v>0.76060000000000005</v>
       </c>
-      <c r="P22">
+      <c r="S22">
         <v>0.77459999999999996</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1574,43 +1788,52 @@
         <v>0.86040000000000005</v>
       </c>
       <c r="E23">
+        <v>0.86419999999999997</v>
+      </c>
+      <c r="F23">
+        <v>0.83020000000000005</v>
+      </c>
+      <c r="G23">
         <v>0.8679</v>
       </c>
-      <c r="F23">
+      <c r="H23">
         <v>0.86419999999999997</v>
       </c>
-      <c r="G23">
+      <c r="I23">
+        <v>0.85660000000000003</v>
+      </c>
+      <c r="J23">
         <v>0.64149999999999996</v>
       </c>
-      <c r="H23">
+      <c r="K23">
         <v>0.64149999999999996</v>
       </c>
-      <c r="I23">
+      <c r="L23">
         <v>0.8377</v>
       </c>
-      <c r="J23">
+      <c r="M23">
         <v>0.8226</v>
       </c>
-      <c r="K23">
+      <c r="N23">
         <v>0.73209999999999997</v>
       </c>
-      <c r="L23">
+      <c r="O23">
         <v>0.76229999999999998</v>
       </c>
-      <c r="M23">
+      <c r="P23">
         <v>0.74719999999999998</v>
       </c>
-      <c r="N23">
+      <c r="Q23">
         <v>0.75849999999999995</v>
       </c>
-      <c r="O23">
+      <c r="R23">
         <v>0.84530000000000005</v>
       </c>
-      <c r="P23">
+      <c r="S23">
         <v>0.86040000000000005</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1624,43 +1847,52 @@
         <v>0.62949999999999995</v>
       </c>
       <c r="E24">
+        <v>0.68710000000000004</v>
+      </c>
+      <c r="F24">
+        <v>0.64029999999999998</v>
+      </c>
+      <c r="G24">
         <v>0.70140000000000002</v>
       </c>
-      <c r="F24">
+      <c r="H24">
         <v>0.67630000000000001</v>
       </c>
-      <c r="G24">
+      <c r="I24">
+        <v>0.62590000000000001</v>
+      </c>
+      <c r="J24">
         <v>0.46400000000000002</v>
       </c>
-      <c r="H24">
+      <c r="K24">
         <v>0.49640000000000001</v>
       </c>
-      <c r="I24">
+      <c r="L24">
         <v>0.61870000000000003</v>
       </c>
-      <c r="J24">
+      <c r="M24">
         <v>0.62949999999999995</v>
       </c>
-      <c r="K24">
+      <c r="N24">
         <v>0.54320000000000002</v>
       </c>
-      <c r="L24">
+      <c r="O24">
         <v>0.57550000000000001</v>
       </c>
-      <c r="M24">
+      <c r="P24">
         <v>0.56469999999999998</v>
       </c>
-      <c r="N24">
+      <c r="Q24">
         <v>0.52159999999999995</v>
       </c>
-      <c r="O24">
+      <c r="R24">
         <v>0.6331</v>
       </c>
-      <c r="P24">
+      <c r="S24">
         <v>0.62949999999999995</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1674,43 +1906,52 @@
         <v>0.70589999999999997</v>
       </c>
       <c r="E25">
+        <v>0.74119999999999997</v>
+      </c>
+      <c r="F25">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="G25">
         <v>0.72550000000000003</v>
       </c>
-      <c r="F25">
+      <c r="H25">
         <v>0.76080000000000003</v>
       </c>
-      <c r="G25">
+      <c r="I25">
+        <v>0.76859999999999995</v>
+      </c>
+      <c r="J25">
         <v>0.52549999999999997</v>
       </c>
-      <c r="H25">
+      <c r="K25">
         <v>0.50980000000000003</v>
       </c>
-      <c r="I25">
+      <c r="L25">
         <v>0.66269999999999996</v>
       </c>
-      <c r="J25">
+      <c r="M25">
         <v>0.69799999999999995</v>
       </c>
-      <c r="K25">
+      <c r="N25">
         <v>0.62350000000000005</v>
       </c>
-      <c r="L25">
+      <c r="O25">
         <v>0.63139999999999996</v>
       </c>
-      <c r="M25">
+      <c r="P25">
         <v>0.68240000000000001</v>
       </c>
-      <c r="N25">
+      <c r="Q25">
         <v>0.61960000000000004</v>
       </c>
-      <c r="O25">
+      <c r="R25">
         <v>0.72550000000000003</v>
       </c>
-      <c r="P25">
+      <c r="S25">
         <v>0.7137</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1724,43 +1965,52 @@
         <v>0.92159999999999997</v>
       </c>
       <c r="E26">
+        <v>0.90669999999999995</v>
+      </c>
+      <c r="F26">
+        <v>0.90669999999999995</v>
+      </c>
+      <c r="G26">
         <v>0.88429999999999997</v>
       </c>
-      <c r="F26">
+      <c r="H26">
         <v>0.90300000000000002</v>
       </c>
-      <c r="G26">
+      <c r="I26">
+        <v>0.88429999999999997</v>
+      </c>
+      <c r="J26">
         <v>0.66420000000000001</v>
       </c>
-      <c r="H26">
+      <c r="K26">
         <v>0.65669999999999995</v>
       </c>
-      <c r="I26">
+      <c r="L26">
         <v>0.86570000000000003</v>
       </c>
-      <c r="J26">
+      <c r="M26">
         <v>0.88429999999999997</v>
       </c>
-      <c r="K26">
+      <c r="N26">
         <v>0.79479999999999995</v>
       </c>
-      <c r="L26">
+      <c r="O26">
         <v>0.77610000000000001</v>
       </c>
-      <c r="M26">
+      <c r="P26">
         <v>0.75749999999999995</v>
       </c>
-      <c r="N26">
+      <c r="Q26">
         <v>0.79100000000000004</v>
       </c>
-      <c r="O26">
+      <c r="R26">
         <v>0.85819999999999996</v>
       </c>
-      <c r="P26">
+      <c r="S26">
         <v>0.87690000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1774,43 +2024,52 @@
         <v>0.91369999999999996</v>
       </c>
       <c r="E27">
+        <v>0.87060000000000004</v>
+      </c>
+      <c r="F27">
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="G27">
         <v>0.88239999999999996</v>
       </c>
-      <c r="F27">
+      <c r="H27">
         <v>0.92159999999999997</v>
       </c>
-      <c r="G27">
+      <c r="I27">
+        <v>0.90980000000000005</v>
+      </c>
+      <c r="J27">
         <v>0.68240000000000001</v>
       </c>
-      <c r="H27">
+      <c r="K27">
         <v>0.70979999999999999</v>
       </c>
-      <c r="I27">
+      <c r="L27">
         <v>0.87839999999999996</v>
       </c>
-      <c r="J27">
+      <c r="M27">
         <v>0.91369999999999996</v>
       </c>
-      <c r="K27">
+      <c r="N27">
         <v>0.81569999999999998</v>
       </c>
-      <c r="L27">
+      <c r="O27">
         <v>0.79610000000000003</v>
       </c>
-      <c r="M27">
+      <c r="P27">
         <v>0.78820000000000001</v>
       </c>
-      <c r="N27">
+      <c r="Q27">
         <v>0.82350000000000001</v>
       </c>
-      <c r="O27">
+      <c r="R27">
         <v>0.88629999999999998</v>
       </c>
-      <c r="P27">
+      <c r="S27">
         <v>0.91759999999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1824,43 +2083,52 @@
         <v>0.78990000000000005</v>
       </c>
       <c r="E28">
+        <v>0.79349999999999998</v>
+      </c>
+      <c r="F28">
+        <v>0.75</v>
+      </c>
+      <c r="G28">
         <v>0.80069999999999997</v>
       </c>
-      <c r="F28">
+      <c r="H28">
         <v>0.78620000000000001</v>
       </c>
-      <c r="G28">
+      <c r="I28">
+        <v>0.81520000000000004</v>
+      </c>
+      <c r="J28">
         <v>0.52170000000000005</v>
       </c>
-      <c r="H28">
+      <c r="K28">
         <v>0.46379999999999999</v>
       </c>
-      <c r="I28">
+      <c r="L28">
         <v>0.75</v>
       </c>
-      <c r="J28">
+      <c r="M28">
         <v>0.77900000000000003</v>
       </c>
-      <c r="K28">
+      <c r="N28">
         <v>0.66669999999999996</v>
       </c>
-      <c r="L28">
+      <c r="O28">
         <v>0.6522</v>
       </c>
-      <c r="M28">
+      <c r="P28">
         <v>0.64490000000000003</v>
       </c>
-      <c r="N28">
+      <c r="Q28">
         <v>0.6159</v>
       </c>
-      <c r="O28">
+      <c r="R28">
         <v>0.75719999999999998</v>
       </c>
-      <c r="P28">
+      <c r="S28">
         <v>0.80430000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1874,43 +2142,52 @@
         <v>0.77569999999999995</v>
       </c>
       <c r="E29">
+        <v>0.82509999999999994</v>
+      </c>
+      <c r="F29">
+        <v>0.75670000000000004</v>
+      </c>
+      <c r="G29">
         <v>0.76049999999999995</v>
       </c>
-      <c r="F29">
+      <c r="H29">
         <v>0.79849999999999999</v>
       </c>
-      <c r="G29">
+      <c r="I29">
+        <v>0.8175</v>
+      </c>
+      <c r="J29">
         <v>0.48670000000000002</v>
       </c>
-      <c r="H29">
+      <c r="K29">
         <v>0.53990000000000005</v>
       </c>
-      <c r="I29">
+      <c r="L29">
         <v>0.80230000000000001</v>
       </c>
-      <c r="J29">
+      <c r="M29">
         <v>0.79849999999999999</v>
       </c>
-      <c r="K29">
+      <c r="N29">
         <v>0.66159999999999997</v>
       </c>
-      <c r="L29">
+      <c r="O29">
         <v>0.61219999999999997</v>
       </c>
-      <c r="M29">
+      <c r="P29">
         <v>0.63500000000000001</v>
       </c>
-      <c r="N29">
+      <c r="Q29">
         <v>0.65400000000000003</v>
       </c>
-      <c r="O29">
+      <c r="R29">
         <v>0.76049999999999995</v>
       </c>
-      <c r="P29">
+      <c r="S29">
         <v>0.74519999999999997</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1924,43 +2201,52 @@
         <v>0.90400000000000003</v>
       </c>
       <c r="E30">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="F30">
+        <v>0.9</v>
+      </c>
+      <c r="G30">
         <v>0.876</v>
       </c>
-      <c r="F30">
+      <c r="H30">
         <v>0.88800000000000001</v>
       </c>
-      <c r="G30">
+      <c r="I30">
+        <v>0.876</v>
+      </c>
+      <c r="J30">
         <v>0.60399999999999998</v>
       </c>
-      <c r="H30">
+      <c r="K30">
         <v>0.65200000000000002</v>
       </c>
-      <c r="I30">
+      <c r="L30">
         <v>0.85199999999999998</v>
       </c>
-      <c r="J30">
+      <c r="M30">
         <v>0.88400000000000001</v>
       </c>
-      <c r="K30">
+      <c r="N30">
         <v>0.78800000000000003</v>
       </c>
-      <c r="L30">
+      <c r="O30">
         <v>0.748</v>
       </c>
-      <c r="M30">
+      <c r="P30">
         <v>0.73199999999999998</v>
       </c>
-      <c r="N30">
+      <c r="Q30">
         <v>0.78400000000000003</v>
       </c>
-      <c r="O30">
+      <c r="R30">
         <v>0.90800000000000003</v>
       </c>
-      <c r="P30">
+      <c r="S30">
         <v>0.88</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1974,45 +2260,54 @@
         <v>0.65039999999999998</v>
       </c>
       <c r="E31">
+        <v>0.61380000000000001</v>
+      </c>
+      <c r="F31">
+        <v>0.66259999999999997</v>
+      </c>
+      <c r="G31">
         <v>0.63009999999999999</v>
       </c>
-      <c r="F31">
+      <c r="H31">
         <v>0.68700000000000006</v>
       </c>
-      <c r="G31">
+      <c r="I31">
+        <v>0.67069999999999996</v>
+      </c>
+      <c r="J31">
         <v>0.40239999999999998</v>
       </c>
-      <c r="H31">
+      <c r="K31">
         <v>0.45529999999999998</v>
       </c>
-      <c r="I31">
+      <c r="L31">
         <v>0.64629999999999999</v>
       </c>
-      <c r="J31">
+      <c r="M31">
         <v>0.65039999999999998</v>
       </c>
-      <c r="K31">
+      <c r="N31">
         <v>0.51629999999999998</v>
       </c>
-      <c r="L31">
+      <c r="O31">
         <v>0.51629999999999998</v>
       </c>
-      <c r="M31">
+      <c r="P31">
         <v>0.5</v>
       </c>
-      <c r="N31">
+      <c r="Q31">
         <v>0.55279999999999996</v>
       </c>
-      <c r="O31">
+      <c r="R31">
         <v>0.6179</v>
       </c>
-      <c r="P31">
+      <c r="S31">
         <v>0.626</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
-        <f t="shared" ref="B32:P32" si="0">AVERAGE(B2:B31)</f>
+        <f t="shared" ref="B32:S32" si="0">AVERAGE(B2:B31)</f>
         <v>0.70085999999999993</v>
       </c>
       <c r="C32" s="1">
@@ -2024,50 +2319,62 @@
         <v>0.81340333333333337</v>
       </c>
       <c r="E32" s="1">
+        <f>AVERAGE(E2:E31)</f>
+        <v>0.81559000000000015</v>
+      </c>
+      <c r="F32" s="1">
+        <f>AVERAGE(F2:F31)</f>
+        <v>0.80572333333333335</v>
+      </c>
+      <c r="G32" s="1">
         <f t="shared" si="0"/>
         <v>0.78740999999999994</v>
       </c>
-      <c r="F32" s="1">
+      <c r="H32" s="1">
         <f t="shared" si="0"/>
         <v>0.81394333333333357</v>
       </c>
-      <c r="G32" s="1">
+      <c r="I32" s="1">
+        <f>AVERAGE(I2:I31)</f>
+        <v>0.82058620689655182</v>
+      </c>
+      <c r="J32" s="1">
         <f t="shared" si="0"/>
         <v>0.54892000000000019</v>
       </c>
-      <c r="H32" s="1">
+      <c r="K32" s="1">
         <f t="shared" si="0"/>
         <v>0.58109333333333346</v>
       </c>
-      <c r="I32" s="1">
+      <c r="L32" s="1">
         <f t="shared" si="0"/>
         <v>0.78243666666666678</v>
       </c>
-      <c r="J32" s="1">
+      <c r="M32" s="1">
         <f t="shared" si="0"/>
         <v>0.80292333333333343</v>
       </c>
-      <c r="K32" s="1">
+      <c r="N32" s="1">
         <f t="shared" si="0"/>
         <v>0.68807000000000007</v>
       </c>
-      <c r="L32" s="1">
+      <c r="O32" s="1">
         <f t="shared" si="0"/>
         <v>0.68689333333333347</v>
       </c>
-      <c r="M32" s="1">
+      <c r="P32" s="1">
         <f t="shared" si="0"/>
         <v>0.68407000000000007</v>
       </c>
-      <c r="N32" s="1">
+      <c r="Q32" s="1">
         <f t="shared" si="0"/>
         <v>0.69684666666666639</v>
       </c>
-      <c r="O32" s="1">
+      <c r="R32" s="1">
         <f t="shared" si="0"/>
         <v>0.78455333333333332</v>
       </c>
-      <c r="P32" s="1">
+      <c r="S32" s="1">
         <f t="shared" si="0"/>
         <v>0.79659000000000002</v>
       </c>
@@ -2075,6 +2382,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/results/SubResults.xlsx
+++ b/results/SubResults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pycharm Project\VMD_Ts2Image\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{967F72F4-8665-4954-904B-7A78700DB499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D653DBC2-CD66-4952-A7AC-7F9178F6B3B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19310" yWindow="3470" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>SubID</t>
   </si>
@@ -140,6 +140,10 @@
   </si>
   <si>
     <t>tanh128</t>
+  </si>
+  <si>
+    <t>LSTM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -515,15 +519,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK33"/>
+  <dimension ref="A1:AL33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB32" sqref="AB32"/>
+    <sheetView tabSelected="1" topLeftCell="T12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AL2" sqref="AL2:AL31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -635,8 +639,11 @@
       <c r="AK1" t="s">
         <v>36</v>
       </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -748,8 +755,11 @@
       <c r="AK2">
         <v>0.69079999999999997</v>
       </c>
+      <c r="AL2">
+        <v>0.61240000000000006</v>
+      </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -861,8 +871,11 @@
       <c r="AK3">
         <v>0.69579999999999997</v>
       </c>
+      <c r="AL3">
+        <v>0.73050000000000004</v>
+      </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -974,8 +987,11 @@
       <c r="AK4">
         <v>0.75090000000000001</v>
       </c>
+      <c r="AL4">
+        <v>0.64149999999999996</v>
+      </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1087,8 +1103,11 @@
       <c r="AK5">
         <v>0.59450000000000003</v>
       </c>
+      <c r="AL5">
+        <v>0.66930000000000001</v>
+      </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1200,8 +1219,11 @@
       <c r="AK6">
         <v>0.70220000000000005</v>
       </c>
+      <c r="AL6">
+        <v>0.70520000000000005</v>
+      </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1313,8 +1335,11 @@
       <c r="AK7">
         <v>0.66810000000000003</v>
       </c>
+      <c r="AL7">
+        <v>0.6502</v>
+      </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1426,8 +1451,11 @@
       <c r="AK8">
         <v>0.6079</v>
       </c>
+      <c r="AL8">
+        <v>0.57450000000000001</v>
+      </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1539,8 +1567,11 @@
       <c r="AK9">
         <v>0.74139999999999995</v>
       </c>
+      <c r="AL9">
+        <v>0.62309999999999999</v>
+      </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1652,8 +1683,11 @@
       <c r="AK10">
         <v>0.81759999999999999</v>
       </c>
+      <c r="AL10">
+        <v>0.74660000000000004</v>
+      </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1765,8 +1799,11 @@
       <c r="AK11">
         <v>0.65669999999999995</v>
       </c>
+      <c r="AL11">
+        <v>0.64019999999999999</v>
+      </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1878,8 +1915,11 @@
       <c r="AK12">
         <v>0.74650000000000005</v>
       </c>
+      <c r="AL12">
+        <v>0.65710000000000002</v>
+      </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1991,8 +2031,11 @@
       <c r="AK13">
         <v>0.4652</v>
       </c>
+      <c r="AL13">
+        <v>0.58409999999999995</v>
+      </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2104,8 +2147,11 @@
       <c r="AK14">
         <v>0.52359999999999995</v>
       </c>
+      <c r="AL14">
+        <v>0.54410000000000003</v>
+      </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2217,8 +2263,11 @@
       <c r="AK15">
         <v>0.80659999999999998</v>
       </c>
+      <c r="AL15">
+        <v>0.70369999999999999</v>
+      </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2330,8 +2379,11 @@
       <c r="AK16">
         <v>0.74560000000000004</v>
       </c>
+      <c r="AL16">
+        <v>0.7</v>
+      </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2443,8 +2495,11 @@
       <c r="AK17">
         <v>0.73650000000000004</v>
       </c>
+      <c r="AL17">
+        <v>0.64229999999999998</v>
+      </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2556,8 +2611,11 @@
       <c r="AK18">
         <v>0.72599999999999998</v>
       </c>
+      <c r="AL18">
+        <v>0.6875</v>
+      </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2669,8 +2727,11 @@
       <c r="AK19">
         <v>0.72919999999999996</v>
       </c>
+      <c r="AL19">
+        <v>0.66300000000000003</v>
+      </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2782,8 +2843,11 @@
       <c r="AK20">
         <v>0.63419999999999999</v>
       </c>
+      <c r="AL20">
+        <v>0.56920000000000004</v>
+      </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2895,8 +2959,11 @@
       <c r="AK21">
         <v>0.7137</v>
       </c>
+      <c r="AL21">
+        <v>0.61109999999999998</v>
+      </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3008,8 +3075,11 @@
       <c r="AK22">
         <v>0.60919999999999996</v>
       </c>
+      <c r="AL22">
+        <v>0.65</v>
+      </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3121,8 +3191,11 @@
       <c r="AK23">
         <v>0.70940000000000003</v>
       </c>
+      <c r="AL23">
+        <v>0.70109999999999995</v>
+      </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3234,8 +3307,11 @@
       <c r="AK24">
         <v>0.55759999999999998</v>
       </c>
+      <c r="AL24">
+        <v>0.51819999999999999</v>
+      </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3347,8 +3423,11 @@
       <c r="AK25">
         <v>0.57250000000000001</v>
       </c>
+      <c r="AL25">
+        <v>0.60709999999999997</v>
+      </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3460,8 +3539,11 @@
       <c r="AK26">
         <v>0.72009999999999996</v>
       </c>
+      <c r="AL26">
+        <v>0.70830000000000004</v>
+      </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3573,8 +3655,11 @@
       <c r="AK27">
         <v>0.7843</v>
       </c>
+      <c r="AL27">
+        <v>0.75790000000000002</v>
+      </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3686,8 +3771,11 @@
       <c r="AK28">
         <v>0.64490000000000003</v>
       </c>
+      <c r="AL28">
+        <v>0.57720000000000005</v>
+      </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3799,8 +3887,11 @@
       <c r="AK29">
         <v>0.62739999999999996</v>
       </c>
+      <c r="AL29">
+        <v>0.61780000000000002</v>
+      </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3912,8 +4003,11 @@
       <c r="AK30">
         <v>0.74</v>
       </c>
+      <c r="AL30">
+        <v>0.68020000000000003</v>
+      </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4025,10 +4119,13 @@
       <c r="AK31">
         <v>0.48780000000000001</v>
       </c>
+      <c r="AL31">
+        <v>0.56789999999999996</v>
+      </c>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
-        <f t="shared" ref="B32:P32" si="0">AVERAGE(B2:B31)</f>
+        <f t="shared" ref="B32" si="0">AVERAGE(B2:B31)</f>
         <v>0.70085999999999993</v>
       </c>
       <c r="C32" s="1">
@@ -4170,6 +4267,10 @@
       <c r="AK32" s="1">
         <f t="shared" si="1"/>
         <v>0.67353999999999992</v>
+      </c>
+      <c r="AL32" s="1">
+        <f>AVERAGE(AL2:AL31)</f>
+        <v>0.64471000000000012</v>
       </c>
     </row>
     <row r="33" spans="3:7" x14ac:dyDescent="0.25">
@@ -4182,6 +4283,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>